--- a/Python/Buch_ATBS/Teil_2/Kapitel_12_Arbeiten_mit_Excel-Sheets/05_textformatierung_in_zellen/word_cloud.xlsx
+++ b/Python/Buch_ATBS/Teil_2/Kapitel_12_Arbeiten_mit_Excel-Sheets/05_textformatierung_in_zellen/word_cloud.xlsx
@@ -445,7 +445,8 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
